--- a/2_CodeMappingTemplates/SS_DiversionsWithdrawalsWaterUse/XXssdw_DivisionAndWithdrawlSitesSchema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/SS_DiversionsWithdrawalsWaterUse/XXssdw_DivisionAndWithdrawlSitesSchema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\SS_DiversionsWithdrawalsWaterUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D513D-DEBA-4B56-A758-F0FC44477FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9195BF1D-18D4-404E-B377-5123A9B80513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="262">
   <si>
     <t>Name</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Indicator of how the actual amount value within the data was determined (i.e. calculated, measured, estimated, reported, modeled, etc).</t>
   </si>
   <si>
-    <t>*Create this file by hand</t>
-  </si>
-  <si>
     <t>Internal unique identifier integer for variables</t>
   </si>
   <si>
@@ -820,6 +817,15 @@
   </si>
   <si>
     <t>The state recognized stated purpose for the water right (e.g., irrigation, power, etc) (if multiple, provide as a comma separated list).</t>
+  </si>
+  <si>
+    <t>*Create method.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create variable.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create organization.csv file by hand</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -1903,7 +1909,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F15" s="87" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2315,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2419,10 +2425,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>182</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2455,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2488,7 +2494,7 @@
         <v>72</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2521,7 +2527,7 @@
         <v>74</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2554,7 +2560,7 @@
         <v>76</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2587,7 +2593,7 @@
         <v>78</v>
       </c>
       <c r="K8" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2620,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2653,7 +2659,7 @@
         <v>82</v>
       </c>
       <c r="K10" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2686,7 +2692,7 @@
         <v>84</v>
       </c>
       <c r="K11" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2719,12 +2725,12 @@
         <v>84</v>
       </c>
       <c r="K12" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F14" s="87" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2740,9 +2746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2858,10 +2864,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>194</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2891,10 +2897,10 @@
         <v>7</v>
       </c>
       <c r="J4" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="79" t="s">
         <v>196</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2924,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="79" t="s">
         <v>198</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2957,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="J6" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="79" t="s">
         <v>200</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2990,10 +2996,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="79" t="s">
         <v>202</v>
-      </c>
-      <c r="K7" s="79" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3023,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>204</v>
-      </c>
-      <c r="K8" s="79" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3056,10 +3062,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="79" t="s">
         <v>206</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3089,10 +3095,10 @@
         <v>7</v>
       </c>
       <c r="J10" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="79" t="s">
         <v>208</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3125,12 +3131,12 @@
         <v>154</v>
       </c>
       <c r="K11" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F13" s="87" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3258,7 +3264,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3284,10 +3290,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>212</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3307,20 +3313,20 @@
         <v>7</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3347,7 +3353,7 @@
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3376,7 +3382,7 @@
         <v>98</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3405,7 +3411,7 @@
         <v>151</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3431,10 +3437,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>219</v>
-      </c>
-      <c r="K8" s="79" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3460,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="79" t="s">
         <v>221</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3587,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3611,15 +3617,15 @@
         <v>7</v>
       </c>
       <c r="J3" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>224</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>15</v>
@@ -3634,20 +3640,20 @@
         <v>10</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3673,10 +3679,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3703,7 +3709,7 @@
       </c>
       <c r="J6" s="92"/>
       <c r="K6" s="79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3730,7 +3736,7 @@
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3757,7 +3763,7 @@
       </c>
       <c r="J8" s="92"/>
       <c r="K8" s="79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3786,7 +3792,7 @@
         <v>4326</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3813,7 +3819,7 @@
       </c>
       <c r="J10" s="92"/>
       <c r="K10" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3840,7 +3846,7 @@
       </c>
       <c r="J11" s="92"/>
       <c r="K11" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3867,7 +3873,7 @@
       </c>
       <c r="J12" s="92"/>
       <c r="K12" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3894,7 +3900,7 @@
       </c>
       <c r="J13" s="92"/>
       <c r="K13" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3923,7 +3929,7 @@
         <v>40.424861522</v>
       </c>
       <c r="K14" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3952,7 +3958,7 @@
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3979,7 +3985,7 @@
       </c>
       <c r="J16" s="92"/>
       <c r="K16" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4006,7 +4012,7 @@
       </c>
       <c r="J17" s="92"/>
       <c r="K17" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4035,7 +4041,7 @@
         <v>149</v>
       </c>
       <c r="K18" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4061,10 +4067,10 @@
         <v>7</v>
       </c>
       <c r="J19" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="79" t="s">
         <v>240</v>
-      </c>
-      <c r="K19" s="79" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4090,10 +4096,10 @@
         <v>7</v>
       </c>
       <c r="J20" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="79" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="79" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4113,20 +4119,20 @@
         <v>7</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I21" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="92"/>
       <c r="K21" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4152,10 +4158,10 @@
         <v>7</v>
       </c>
       <c r="J22" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="79" t="s">
         <v>245</v>
-      </c>
-      <c r="K22" s="79" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.3">
@@ -4184,7 +4190,7 @@
         <v>154</v>
       </c>
       <c r="K23" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4211,7 +4217,7 @@
       </c>
       <c r="J24" s="92"/>
       <c r="K24" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -4525,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>16</v>
@@ -4554,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>18</v>
@@ -4583,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>124</v>
@@ -4612,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>20</v>
@@ -4641,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>22</v>
@@ -4700,7 +4706,7 @@
       </c>
       <c r="J14" s="92"/>
       <c r="K14" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4753,10 +4759,10 @@
         <v>7</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K16" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4782,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K17" s="51" t="s">
         <v>119</v>
@@ -4865,7 +4871,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K20" s="51" t="s">
         <v>54</v>
@@ -4915,13 +4921,13 @@
         <v>7</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I22" s="107" t="s">
         <v>7</v>
@@ -5063,7 +5069,7 @@
       </c>
       <c r="J27" s="92"/>
       <c r="K27" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5089,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>112</v>

--- a/2_CodeMappingTemplates/SS_DiversionsWithdrawalsWaterUse/XXssdw_DivisionAndWithdrawlSitesSchema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/SS_DiversionsWithdrawalsWaterUse/XXssdw_DivisionAndWithdrawlSitesSchema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\SS_DiversionsWithdrawalsWaterUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9195BF1D-18D4-404E-B377-5123A9B80513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DD581-6F2A-4FF4-9BA6-4EA076FA55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>OrganizationContactName</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -826,6 +823,9 @@
   </si>
   <si>
     <t>*Create organization.csv file by hand</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingUrl</t>
   </si>
 </sst>
 </file>
@@ -1823,10 +1823,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>153</v>
       </c>
       <c r="C1" s="74" t="s">
         <v>4</v>
@@ -1834,31 +1834,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>155</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="76"/>
     </row>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="76"/>
     </row>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1907,9 +1907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,22 +1936,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2025,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>166</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2058,10 +2058,10 @@
         <v>7</v>
       </c>
       <c r="J4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="79" t="s">
         <v>168</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2091,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" s="79" t="s">
         <v>61</v>
@@ -2124,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>172</v>
-      </c>
-      <c r="K8" s="79" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2223,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="79" t="s">
         <v>174</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2256,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="J10" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="79" t="s">
         <v>176</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2289,15 +2289,48 @@
         <v>7</v>
       </c>
       <c r="J11" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="79" t="s">
-        <v>179</v>
+    </row>
+    <row r="12" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F15" s="87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2342,22 +2375,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -2395,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2425,10 +2458,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>181</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2461,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2494,7 +2527,7 @@
         <v>72</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2527,7 +2560,7 @@
         <v>74</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2560,7 +2593,7 @@
         <v>76</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2593,7 +2626,7 @@
         <v>78</v>
       </c>
       <c r="K8" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2626,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2659,7 +2692,7 @@
         <v>82</v>
       </c>
       <c r="K10" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,7 +2725,7 @@
         <v>84</v>
       </c>
       <c r="K11" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2725,12 +2758,12 @@
         <v>84</v>
       </c>
       <c r="K12" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F14" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2744,11 +2777,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,22 +2808,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -2834,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2864,10 +2897,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>193</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="J4" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="79" t="s">
         <v>195</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2930,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="79" t="s">
         <v>197</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2963,10 +2996,10 @@
         <v>7</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2996,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3013,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>7</v>
@@ -3029,10 +3062,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3046,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>7</v>
@@ -3062,10 +3095,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3073,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>7</v>
@@ -3082,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="37" t="s">
@@ -3095,49 +3128,19 @@
         <v>7</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="K10" s="79" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="87" t="s">
-        <v>261</v>
-      </c>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -3160,12 +3163,9 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
-    <sortCondition ref="A5:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
+    <sortCondition ref="A5:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3205,22 +3205,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -3264,7 +3264,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>211</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3301,7 +3301,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>7</v>
@@ -3313,25 +3313,25 @@
         <v>7</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -3353,12 +3353,12 @@
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>26</v>
@@ -3379,15 +3379,15 @@
         <v>7</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -3408,15 +3408,15 @@
         <v>7</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -3437,15 +3437,15 @@
         <v>7</v>
       </c>
       <c r="J8" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>218</v>
-      </c>
-      <c r="K8" s="79" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>26</v>
@@ -3466,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="79" t="s">
         <v>220</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3534,22 +3534,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>6</v>
@@ -3593,12 +3593,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>15</v>
@@ -3617,15 +3617,15 @@
         <v>7</v>
       </c>
       <c r="J3" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>223</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>15</v>
@@ -3640,20 +3640,20 @@
         <v>10</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I4" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3679,18 +3679,18 @@
         <v>7</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K5" s="79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>7</v>
@@ -3709,12 +3709,12 @@
       </c>
       <c r="J6" s="92"/>
       <c r="K6" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>26</v>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3744,7 +3744,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>7</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="J8" s="92"/>
       <c r="K8" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>4326</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>7</v>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="J10" s="92"/>
       <c r="K10" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>25</v>
@@ -3846,15 +3846,15 @@
       </c>
       <c r="J11" s="92"/>
       <c r="K11" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>7</v>
@@ -3873,15 +3873,15 @@
       </c>
       <c r="J12" s="92"/>
       <c r="K12" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>7</v>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="J13" s="92"/>
       <c r="K13" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>23</v>
@@ -3929,12 +3929,12 @@
         <v>40.424861522</v>
       </c>
       <c r="K14" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>23</v>
@@ -3958,12 +3958,12 @@
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>38</v>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="J16" s="92"/>
       <c r="K16" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>38</v>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="J17" s="92"/>
       <c r="K17" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
@@ -4038,18 +4038,18 @@
         <v>7</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>7</v>
@@ -4067,15 +4067,15 @@
         <v>7</v>
       </c>
       <c r="J19" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="79" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="79" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>38</v>
@@ -4096,18 +4096,18 @@
         <v>7</v>
       </c>
       <c r="J20" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="79" t="s">
         <v>241</v>
-      </c>
-      <c r="K20" s="79" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>7</v>
@@ -4119,25 +4119,25 @@
         <v>7</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I21" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="92"/>
       <c r="K21" s="79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>26</v>
@@ -4158,10 +4158,10 @@
         <v>7</v>
       </c>
       <c r="J22" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="79" t="s">
         <v>244</v>
-      </c>
-      <c r="K22" s="79" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>7</v>
@@ -4187,15 +4187,15 @@
         <v>7</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K23" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="J24" s="92"/>
       <c r="K24" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -4280,22 +4280,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>3</v>
@@ -4333,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="32"/>
     </row>
@@ -4369,12 +4369,12 @@
         <v>7</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>53</v>
@@ -4404,12 +4404,12 @@
         <v>7</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>53</v>
@@ -4439,7 +4439,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4474,7 +4474,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4505,7 +4505,7 @@
       <c r="I7" s="106"/>
       <c r="J7" s="106"/>
       <c r="K7" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>16</v>
@@ -4560,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>18</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>15</v>
@@ -4589,10 +4589,10 @@
         <v>7</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4618,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>20</v>
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>22</v>
@@ -4658,7 +4658,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>7</v>
@@ -4687,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>7</v>
@@ -4706,15 +4706,15 @@
       </c>
       <c r="J14" s="92"/>
       <c r="K14" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>7</v>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="J15" s="92"/>
       <c r="K15" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>39</v>
@@ -4759,10 +4759,10 @@
         <v>7</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K16" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4788,10 +4788,10 @@
         <v>7</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K17" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="J18" s="92"/>
       <c r="K18" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>53</v>
@@ -4871,7 +4871,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="51" t="s">
         <v>54</v>
@@ -4921,13 +4921,13 @@
         <v>7</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="107" t="s">
         <v>7</v>
@@ -4942,7 +4942,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="J24" s="92"/>
       <c r="K24" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>7</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="J25" s="92"/>
       <c r="K25" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>7</v>
@@ -5069,12 +5069,12 @@
       </c>
       <c r="J27" s="92"/>
       <c r="K27" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -5095,10 +5095,10 @@
         <v>7</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5106,7 +5106,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>7</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>39</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>53</v>
